--- a/data/scc_mult.xlsx
+++ b/data/scc_mult.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SandraSattler\ReEDS_SCC\SCC_test2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SandraSattler\OneDrive\reeds-visualizer\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{642FB6B3-F3FE-461A-B6CC-D1617DA1E2FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01ED42B-A924-41D9-BA68-C6FF60BB5501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{14CAF4EA-8594-4701-A0E0-7689DCBB7A5E}"/>
+    <workbookView xWindow="9156" yWindow="3804" windowWidth="13884" windowHeight="9876" xr2:uid="{14CAF4EA-8594-4701-A0E0-7689DCBB7A5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118EF22A-74E5-4DB0-9FF0-1D97E3CCD392}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -505,239 +505,263 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B9">
-        <v>2038</v>
+        <v>2035</v>
       </c>
       <c r="C9">
-        <v>262</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B10">
-        <v>2041</v>
+        <v>2038</v>
       </c>
       <c r="C10">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B11">
-        <v>2044</v>
+        <v>2041</v>
       </c>
       <c r="C11">
-        <v>286</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B12">
-        <v>2047</v>
+        <v>2044</v>
       </c>
       <c r="C12">
-        <v>298</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B13">
+        <v>2047</v>
+      </c>
+      <c r="C13">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14">
         <v>2050</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>310</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
         <v>4</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>2010</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>800</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15">
-        <v>2015</v>
-      </c>
-      <c r="C15">
-        <v>1200</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B16">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="C16">
-        <v>1600</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B17">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="C17">
-        <v>1840</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B18">
-        <v>2026</v>
+        <v>2023</v>
       </c>
       <c r="C18">
-        <v>2080</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B19">
-        <v>2029</v>
+        <v>2026</v>
       </c>
       <c r="C19">
-        <v>2320</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B20">
-        <v>2032</v>
+        <v>2029</v>
       </c>
       <c r="C20">
-        <v>2580</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B21">
-        <v>2038</v>
+        <v>2032</v>
       </c>
       <c r="C21">
-        <v>3120</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B22">
-        <v>2041</v>
+        <v>2035</v>
       </c>
       <c r="C22">
-        <v>3390</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B23">
-        <v>2044</v>
+        <v>2038</v>
       </c>
       <c r="C23">
-        <v>3660</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B24">
-        <v>2047</v>
+        <v>2041</v>
       </c>
       <c r="C24">
-        <v>3930</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B25">
-        <v>2050</v>
+        <v>2044</v>
       </c>
       <c r="C25">
-        <v>4200</v>
+        <v>3660</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" t="s">
-        <v>5</v>
-      </c>
       <c r="B26">
-        <v>2010</v>
+        <v>2047</v>
       </c>
       <c r="C26">
-        <v>42000</v>
+        <v>3930</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B27">
-        <v>2015</v>
+        <v>2050</v>
       </c>
       <c r="C27">
-        <v>48000</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
       <c r="B28">
-        <v>2020</v>
+        <v>2010</v>
       </c>
       <c r="C28">
-        <v>54000</v>
+        <v>42000</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B29">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="C29">
-        <v>57600</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B30">
-        <v>2026</v>
+        <v>2020</v>
       </c>
       <c r="C30">
-        <v>61200</v>
+        <v>54000</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B31">
-        <v>2029</v>
+        <v>2023</v>
       </c>
       <c r="C31">
-        <v>64800</v>
+        <v>57600</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B32">
-        <v>2032</v>
+        <v>2026</v>
       </c>
       <c r="C32">
-        <v>68600</v>
+        <v>61200</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B33">
-        <v>2038</v>
+        <v>2029</v>
       </c>
       <c r="C33">
-        <v>76400</v>
+        <v>64800</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B34">
-        <v>2041</v>
+        <v>2032</v>
       </c>
       <c r="C34">
-        <v>80400</v>
+        <v>68600</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B35">
-        <v>2044</v>
+        <v>2035</v>
       </c>
       <c r="C35">
-        <v>84600</v>
+        <v>72500</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B36">
-        <v>2047</v>
+        <v>2038</v>
       </c>
       <c r="C36">
-        <v>88800</v>
+        <v>76400</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B37">
+        <v>2041</v>
+      </c>
+      <c r="C37">
+        <v>80400</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38">
+        <v>2044</v>
+      </c>
+      <c r="C38">
+        <v>84600</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39">
+        <v>2047</v>
+      </c>
+      <c r="C39">
+        <v>88800</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40">
         <v>2050</v>
       </c>
-      <c r="C37">
+      <c r="C40">
         <v>93000</v>
       </c>
     </row>
